--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-9 Lê Văn Linh 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-9 Lê Văn Linh 7-2024.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn thu nợ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -634,7 +635,7 @@
         <v>17000000</v>
       </c>
       <c r="M4" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>1910000</v>
@@ -651,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,6 +663,306 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>164</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>07-25-2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-185</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Hồng Trang</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Lê Văn Linh</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>29500000</v>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v>29500000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="S2" t="n">
+        <v>510000.0000000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>29500000</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>29500000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>510000.0000000001</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục lương</t>
         </is>
       </c>
@@ -676,7 +977,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -686,33 +987,33 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840000</v>
+        <v>875000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại HỆ THỐNG</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -722,7 +1023,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại HỆ THỐNG</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -732,7 +1033,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại HỆ THỐNG</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -742,7 +1043,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -752,57 +1053,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ứng lương tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v/>
+        <v>510000.0000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1000000</v>
+        <v>-4469000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>10267857.14285714</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -812,7 +1113,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -822,7 +1123,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -832,57 +1133,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4469000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9857142.857142856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>910000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>15401785.71428571</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -892,7 +1193,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -902,7 +1203,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -912,27 +1213,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14785714.28571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -942,7 +1243,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -952,101 +1253,51 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-2084000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>11177857.14285714</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>15401785.71428571</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Tổng lương tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-2629000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>10767142.85714286</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>14785714.28571429</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>22923857.14285714</v>
+        <v>24495642.85714286</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-9 Lê Văn Linh 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-9 Lê Văn Linh 7-2024.xlsx
@@ -952,7 +952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,21 +973,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ngày công</t>
+          <t>Tổng công tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp</t>
+          <t>Phụ cấp tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>875000</v>
+        <v>980000</v>
       </c>
     </row>
     <row r="4">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v/>
+        <v>17250000</v>
       </c>
     </row>
     <row r="5">
@@ -1083,27 +1083,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10267857.14285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Phụ cấp tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>910000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1113,27 +1113,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>11500000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1143,7 +1143,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1153,7 +1153,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1163,27 +1163,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15401785.71428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1193,17 +1193,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1213,7 +1213,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Phụ cấp tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1223,7 +1223,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1233,17 +1233,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>17250000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1253,51 +1253,111 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2084000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11177857.14285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>15401785.71428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>15271000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>12410000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>17250000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>24495642.85714286</v>
+      <c r="B40" t="n">
+        <v>44931000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-9 Lê Văn Linh 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-9 Lê Văn Linh 7-2024.xlsx
@@ -952,7 +952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,7 +1093,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phụ cấp tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1103,37 +1103,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>11500000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11500000</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>910000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1143,7 +1143,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1153,7 +1153,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1163,7 +1163,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1173,7 +1173,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1183,27 +1183,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1213,17 +1213,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Phụ cấp tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>17250000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1233,17 +1233,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17250000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1253,7 +1253,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1263,7 +1263,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1273,7 +1273,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1283,7 +1283,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1293,70 +1293,50 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>15271000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0</v>
+        <v>12410000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15271000</v>
+        <v>17250000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12410000</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>17250000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
         <v>44931000</v>
       </c>
     </row>
